--- a/data/pca/factorExposure/factorExposure_2011-10-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-10-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01410162525029757</v>
+        <v>-0.0148660689263284</v>
       </c>
       <c r="C2">
-        <v>-0.03533698967698318</v>
+        <v>9.004196557679638e-05</v>
       </c>
       <c r="D2">
-        <v>-0.01896387580354981</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03384817240666605</v>
+      </c>
+      <c r="E2">
+        <v>-0.002052860194316164</v>
+      </c>
+      <c r="F2">
+        <v>-0.03868786690830549</v>
+      </c>
+      <c r="G2">
+        <v>0.01523403846648613</v>
+      </c>
+      <c r="H2">
+        <v>0.01163222726593217</v>
+      </c>
+      <c r="I2">
+        <v>0.01483774828524547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07618012402733343</v>
+        <v>-0.09192634461210553</v>
       </c>
       <c r="C4">
-        <v>-0.05988254474346257</v>
+        <v>0.04349883457484206</v>
       </c>
       <c r="D4">
-        <v>-0.08159361434321526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.07622579659395379</v>
+      </c>
+      <c r="E4">
+        <v>0.03031579540003483</v>
+      </c>
+      <c r="F4">
+        <v>-0.05241173200116928</v>
+      </c>
+      <c r="G4">
+        <v>-0.02623561272650226</v>
+      </c>
+      <c r="H4">
+        <v>-0.01135905874143732</v>
+      </c>
+      <c r="I4">
+        <v>-0.07350475178718877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.1142159954631993</v>
+        <v>-0.1281579867844867</v>
       </c>
       <c r="C6">
-        <v>-0.04862104488863932</v>
+        <v>-0.002244499487752421</v>
       </c>
       <c r="D6">
-        <v>-0.01291696331129558</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.03910840813693917</v>
+      </c>
+      <c r="E6">
+        <v>-0.02232296057250974</v>
+      </c>
+      <c r="F6">
+        <v>-0.03521101416755787</v>
+      </c>
+      <c r="G6">
+        <v>-0.05078532913395972</v>
+      </c>
+      <c r="H6">
+        <v>0.1773114410300318</v>
+      </c>
+      <c r="I6">
+        <v>-0.02336360086951107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.06462749151035918</v>
+        <v>-0.0684824186619568</v>
       </c>
       <c r="C7">
-        <v>-0.04706960855970131</v>
+        <v>0.03888742747694349</v>
       </c>
       <c r="D7">
-        <v>-0.03430437515658102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05232889202597282</v>
+      </c>
+      <c r="E7">
+        <v>0.009251138456533324</v>
+      </c>
+      <c r="F7">
+        <v>-0.05660703625741487</v>
+      </c>
+      <c r="G7">
+        <v>0.01885569909598699</v>
+      </c>
+      <c r="H7">
+        <v>-0.01477264609460191</v>
+      </c>
+      <c r="I7">
+        <v>-0.0351576217134038</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04305952618807592</v>
+        <v>-0.04350927585154366</v>
       </c>
       <c r="C8">
-        <v>0.0008049008579972291</v>
+        <v>0.0275107139371239</v>
       </c>
       <c r="D8">
-        <v>-0.06149518899779204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.009736050688132096</v>
+      </c>
+      <c r="E8">
+        <v>0.03497764207327414</v>
+      </c>
+      <c r="F8">
+        <v>-0.06968425787634995</v>
+      </c>
+      <c r="G8">
+        <v>-0.04707977780662224</v>
+      </c>
+      <c r="H8">
+        <v>0.02250454468422199</v>
+      </c>
+      <c r="I8">
+        <v>-0.1115733603126306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.07218804759096129</v>
+        <v>-0.08268402110263483</v>
       </c>
       <c r="C9">
-        <v>-0.04256396285262388</v>
+        <v>0.04373178553773917</v>
       </c>
       <c r="D9">
-        <v>-0.07600502194799288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.05857943480281324</v>
+      </c>
+      <c r="E9">
+        <v>0.03057649513381184</v>
+      </c>
+      <c r="F9">
+        <v>-0.04773455609173496</v>
+      </c>
+      <c r="G9">
+        <v>-0.03979123321280356</v>
+      </c>
+      <c r="H9">
+        <v>-0.01847259199566411</v>
+      </c>
+      <c r="I9">
+        <v>-0.0750771365486556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02362336931505068</v>
+        <v>-0.05960369606076087</v>
       </c>
       <c r="C10">
-        <v>-0.02268044741785306</v>
+        <v>-0.1941910289557924</v>
       </c>
       <c r="D10">
-        <v>0.1750124489883475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.03364999516199581</v>
+      </c>
+      <c r="E10">
+        <v>-0.001608062241980483</v>
+      </c>
+      <c r="F10">
+        <v>-0.0535604837780338</v>
+      </c>
+      <c r="G10">
+        <v>0.04071638288783234</v>
+      </c>
+      <c r="H10">
+        <v>0.04591822733641147</v>
+      </c>
+      <c r="I10">
+        <v>0.06155136716837011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.06955803387374047</v>
+        <v>-0.0746020090599422</v>
       </c>
       <c r="C11">
-        <v>-0.03725668113575681</v>
+        <v>0.04435609198419613</v>
       </c>
       <c r="D11">
-        <v>-0.05922622338272453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04695669817742636</v>
+      </c>
+      <c r="E11">
+        <v>0.007887324642542519</v>
+      </c>
+      <c r="F11">
+        <v>-0.04258249226314217</v>
+      </c>
+      <c r="G11">
+        <v>-0.05308671247688081</v>
+      </c>
+      <c r="H11">
+        <v>-0.04637107111373506</v>
+      </c>
+      <c r="I11">
+        <v>-0.06439594324748012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.06542240217124166</v>
+        <v>-0.07081253369964102</v>
       </c>
       <c r="C12">
-        <v>-0.04841603195071971</v>
+        <v>0.03228150836549028</v>
       </c>
       <c r="D12">
-        <v>-0.04663077969508259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05071508709322153</v>
+      </c>
+      <c r="E12">
+        <v>0.01528052886858241</v>
+      </c>
+      <c r="F12">
+        <v>-0.02960060738117223</v>
+      </c>
+      <c r="G12">
+        <v>-0.02841700318036059</v>
+      </c>
+      <c r="H12">
+        <v>-0.01892492841760079</v>
+      </c>
+      <c r="I12">
+        <v>-0.0864448873323278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06732370350834722</v>
+        <v>-0.06548268945061313</v>
       </c>
       <c r="C13">
-        <v>-0.05080542211175886</v>
+        <v>0.0289099897159401</v>
       </c>
       <c r="D13">
-        <v>-0.05693020020855527</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04790701220545471</v>
+      </c>
+      <c r="E13">
+        <v>0.0503450206693275</v>
+      </c>
+      <c r="F13">
+        <v>-0.02546904537303243</v>
+      </c>
+      <c r="G13">
+        <v>-0.00717892884774525</v>
+      </c>
+      <c r="H13">
+        <v>-0.03580379516392648</v>
+      </c>
+      <c r="I13">
+        <v>-0.09552388236699161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.0290227758442387</v>
+        <v>-0.03985588541443746</v>
       </c>
       <c r="C14">
-        <v>-0.02939817306823827</v>
+        <v>0.0006571992024804682</v>
       </c>
       <c r="D14">
-        <v>-0.004947712254742128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03335304361634786</v>
+      </c>
+      <c r="E14">
+        <v>0.01622284488012472</v>
+      </c>
+      <c r="F14">
+        <v>-0.02178997022596792</v>
+      </c>
+      <c r="G14">
+        <v>-0.02740275823871744</v>
+      </c>
+      <c r="H14">
+        <v>-0.06647377164337932</v>
+      </c>
+      <c r="I14">
+        <v>-0.0551207876529482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.04725499594569006</v>
+        <v>-0.0418310079731808</v>
       </c>
       <c r="C15">
-        <v>-0.01202392397287824</v>
+        <v>0.01710856860465814</v>
       </c>
       <c r="D15">
-        <v>-0.02533197968208221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01040147656533582</v>
+      </c>
+      <c r="E15">
+        <v>0.03779218009125386</v>
+      </c>
+      <c r="F15">
+        <v>-8.065747398365229e-05</v>
+      </c>
+      <c r="G15">
+        <v>-0.02637251211921912</v>
+      </c>
+      <c r="H15">
+        <v>-0.0205364303312797</v>
+      </c>
+      <c r="I15">
+        <v>-0.02944664886164359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.05918593942603012</v>
+        <v>-0.07181882322840186</v>
       </c>
       <c r="C16">
-        <v>-0.04110179744251385</v>
+        <v>0.0436293497259785</v>
       </c>
       <c r="D16">
-        <v>-0.06179871592048868</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.056457730565182</v>
+      </c>
+      <c r="E16">
+        <v>0.01625509996989869</v>
+      </c>
+      <c r="F16">
+        <v>-0.03384993233473697</v>
+      </c>
+      <c r="G16">
+        <v>-0.02823145016570841</v>
+      </c>
+      <c r="H16">
+        <v>-0.02987167125225304</v>
+      </c>
+      <c r="I16">
+        <v>-0.04128801331332233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1213,25 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1242,228 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.06428143140223923</v>
+        <v>-0.06238728435993109</v>
       </c>
       <c r="C20">
-        <v>-0.02282875398370278</v>
+        <v>0.03644749749507718</v>
       </c>
       <c r="D20">
-        <v>-0.0563701101952877</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.02681650257316799</v>
+      </c>
+      <c r="E20">
+        <v>0.004027282539939869</v>
+      </c>
+      <c r="F20">
+        <v>-0.03151491770359682</v>
+      </c>
+      <c r="G20">
+        <v>-0.01798232141109303</v>
+      </c>
+      <c r="H20">
+        <v>-0.04296340684952915</v>
+      </c>
+      <c r="I20">
+        <v>-0.1016971027063424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03573956402803659</v>
+        <v>-0.0309652493056173</v>
       </c>
       <c r="C21">
-        <v>-0.008813301734522643</v>
+        <v>0.01671695488219948</v>
       </c>
       <c r="D21">
-        <v>-0.009036503033662024</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.008090426494046175</v>
+      </c>
+      <c r="E21">
+        <v>0.03694195116564505</v>
+      </c>
+      <c r="F21">
+        <v>0.002797298371739989</v>
+      </c>
+      <c r="G21">
+        <v>-0.001981680830279242</v>
+      </c>
+      <c r="H21">
+        <v>0.05339137453089389</v>
+      </c>
+      <c r="I21">
+        <v>-0.03018920000763243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.1106998054984981</v>
+        <v>-0.09570246989706578</v>
       </c>
       <c r="C22">
-        <v>-0.03024440597257665</v>
+        <v>0.05126804359257925</v>
       </c>
       <c r="D22">
-        <v>-0.08897660050962562</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01443286406496363</v>
+      </c>
+      <c r="E22">
+        <v>0.5485023037821003</v>
+      </c>
+      <c r="F22">
+        <v>-0.05530925499934597</v>
+      </c>
+      <c r="G22">
+        <v>0.2791863952214927</v>
+      </c>
+      <c r="H22">
+        <v>0.1298908142654218</v>
+      </c>
+      <c r="I22">
+        <v>0.2359040067619547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.1114015659917778</v>
+        <v>-0.09652815296090392</v>
       </c>
       <c r="C23">
-        <v>-0.03124112947940666</v>
+        <v>0.05149597861965682</v>
       </c>
       <c r="D23">
-        <v>-0.08906764420745522</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01562586555707766</v>
+      </c>
+      <c r="E23">
+        <v>0.551860310339455</v>
+      </c>
+      <c r="F23">
+        <v>-0.05703219444667074</v>
+      </c>
+      <c r="G23">
+        <v>0.2736677066236546</v>
+      </c>
+      <c r="H23">
+        <v>0.1294134840684296</v>
+      </c>
+      <c r="I23">
+        <v>0.2381660627497127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.07694795912369798</v>
+        <v>-0.0815327018866458</v>
       </c>
       <c r="C24">
-        <v>-0.04649844200899376</v>
+        <v>0.04169453361387036</v>
       </c>
       <c r="D24">
-        <v>-0.06304103969320364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05408325820345219</v>
+      </c>
+      <c r="E24">
+        <v>0.02079216154359273</v>
+      </c>
+      <c r="F24">
+        <v>-0.04279149482163445</v>
+      </c>
+      <c r="G24">
+        <v>-0.04441914351324407</v>
+      </c>
+      <c r="H24">
+        <v>-0.02036719581855957</v>
+      </c>
+      <c r="I24">
+        <v>-0.06183819619808074</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.07475443423567002</v>
+        <v>-0.07675748371802099</v>
       </c>
       <c r="C25">
-        <v>-0.05342919597702125</v>
+        <v>0.03383295179805555</v>
       </c>
       <c r="D25">
-        <v>-0.05975990046085896</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0570651836232097</v>
+      </c>
+      <c r="E25">
+        <v>0.02805504144046811</v>
+      </c>
+      <c r="F25">
+        <v>-0.03639329677557405</v>
+      </c>
+      <c r="G25">
+        <v>-0.04610634975128695</v>
+      </c>
+      <c r="H25">
+        <v>-0.02959661643911885</v>
+      </c>
+      <c r="I25">
+        <v>-0.07347707806418667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.0460990754849344</v>
+        <v>-0.04491371029392298</v>
       </c>
       <c r="C26">
-        <v>-0.006142285091637323</v>
+        <v>0.01908088465159342</v>
       </c>
       <c r="D26">
-        <v>-0.01333872826687518</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.002922058347344213</v>
+      </c>
+      <c r="E26">
+        <v>0.03963676775732324</v>
+      </c>
+      <c r="F26">
+        <v>-0.02834118831611832</v>
+      </c>
+      <c r="G26">
+        <v>-0.01725584374018837</v>
+      </c>
+      <c r="H26">
+        <v>-0.04345257681706314</v>
+      </c>
+      <c r="I26">
+        <v>-0.01160599356703826</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.04431293214045306</v>
+        <v>-0.0751146502930134</v>
       </c>
       <c r="C28">
-        <v>-0.06116193132135143</v>
+        <v>-0.2923354238063783</v>
       </c>
       <c r="D28">
-        <v>0.2844950418483028</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.04883341304690315</v>
+      </c>
+      <c r="E28">
+        <v>0.0101809456697811</v>
+      </c>
+      <c r="F28">
+        <v>-0.03469925895951451</v>
+      </c>
+      <c r="G28">
+        <v>-0.02987312027727601</v>
+      </c>
+      <c r="H28">
+        <v>0.03753575724630469</v>
+      </c>
+      <c r="I28">
+        <v>0.0147108297419262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.05110324128814044</v>
+        <v>-0.053451974558272</v>
       </c>
       <c r="C29">
-        <v>-0.04541290283402392</v>
+        <v>-0.002627857446279279</v>
       </c>
       <c r="D29">
-        <v>0.0007772483221462998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0380385358189007</v>
+      </c>
+      <c r="E29">
+        <v>0.03425167395074072</v>
+      </c>
+      <c r="F29">
+        <v>-0.03451940414377803</v>
+      </c>
+      <c r="G29">
+        <v>-0.01442991444084731</v>
+      </c>
+      <c r="H29">
+        <v>-0.08867791620420756</v>
+      </c>
+      <c r="I29">
+        <v>-0.04509193970258132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1370987583225763</v>
+        <v>-0.1281650265783824</v>
       </c>
       <c r="C30">
-        <v>-0.07953885628556839</v>
+        <v>0.04586570495417253</v>
       </c>
       <c r="D30">
-        <v>-0.1009252841238619</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.07805447831888568</v>
+      </c>
+      <c r="E30">
+        <v>0.06522062476331376</v>
+      </c>
+      <c r="F30">
+        <v>-0.06644860527257422</v>
+      </c>
+      <c r="G30">
+        <v>-0.04981817637324302</v>
+      </c>
+      <c r="H30">
+        <v>0.04842441450343805</v>
+      </c>
+      <c r="I30">
+        <v>-0.3095626288099477</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04987377552138504</v>
+        <v>-0.04593216721337616</v>
       </c>
       <c r="C31">
-        <v>-0.02763261087918672</v>
+        <v>0.03043438242938155</v>
       </c>
       <c r="D31">
-        <v>-0.02476619393949571</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02810032330710413</v>
+      </c>
+      <c r="E31">
+        <v>0.02184634173722524</v>
+      </c>
+      <c r="F31">
+        <v>-0.01197885870444494</v>
+      </c>
+      <c r="G31">
+        <v>0.007339929112280009</v>
+      </c>
+      <c r="H31">
+        <v>-0.06505473714661829</v>
+      </c>
+      <c r="I31">
+        <v>-0.03039392352483255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.03855061692931171</v>
+        <v>-0.04386966281044789</v>
       </c>
       <c r="C32">
-        <v>-0.01272947223950194</v>
+        <v>-0.001443899132963185</v>
       </c>
       <c r="D32">
-        <v>-0.02643452972357314</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01348271090075456</v>
+      </c>
+      <c r="E32">
+        <v>0.0728982919938047</v>
+      </c>
+      <c r="F32">
+        <v>0.005520869995228778</v>
+      </c>
+      <c r="G32">
+        <v>-0.0229454668990526</v>
+      </c>
+      <c r="H32">
+        <v>0.01375612236319692</v>
+      </c>
+      <c r="I32">
+        <v>0.02262876740535895</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.09231135114624028</v>
+        <v>-0.09754162291709559</v>
       </c>
       <c r="C33">
-        <v>-0.04812739972369131</v>
+        <v>0.03641440490958284</v>
       </c>
       <c r="D33">
-        <v>-0.0450081780528617</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04635783615603038</v>
+      </c>
+      <c r="E33">
+        <v>0.02766750479346105</v>
+      </c>
+      <c r="F33">
+        <v>-0.008960684570909535</v>
+      </c>
+      <c r="G33">
+        <v>-0.002066445918778124</v>
+      </c>
+      <c r="H33">
+        <v>-0.05049859332296093</v>
+      </c>
+      <c r="I33">
+        <v>-0.07385034602753775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.05999743166070927</v>
+        <v>-0.0681849937903139</v>
       </c>
       <c r="C34">
-        <v>-0.02346422210598337</v>
+        <v>0.03686272400884084</v>
       </c>
       <c r="D34">
-        <v>-0.05566991281551349</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03400762306000139</v>
+      </c>
+      <c r="E34">
+        <v>0.02062445172560251</v>
+      </c>
+      <c r="F34">
+        <v>-0.02804583518606865</v>
+      </c>
+      <c r="G34">
+        <v>-0.02709519697718686</v>
+      </c>
+      <c r="H34">
+        <v>-0.03842650800418844</v>
+      </c>
+      <c r="I34">
+        <v>-0.050561555106229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.03651982709177484</v>
+        <v>-0.03631248401661527</v>
       </c>
       <c r="C35">
-        <v>-0.0151330054334534</v>
+        <v>0.01416867849053532</v>
       </c>
       <c r="D35">
-        <v>-0.01687911941419966</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01774722714434772</v>
+      </c>
+      <c r="E35">
+        <v>0.01707578893030898</v>
+      </c>
+      <c r="F35">
+        <v>0.01052315387765948</v>
+      </c>
+      <c r="G35">
+        <v>-0.002259642992877781</v>
+      </c>
+      <c r="H35">
+        <v>-0.03375147186862044</v>
+      </c>
+      <c r="I35">
+        <v>-0.05005816507781654</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.03088298706128477</v>
+        <v>-0.03066526499332148</v>
       </c>
       <c r="C36">
-        <v>-0.01492125429884594</v>
+        <v>0.01166147932445883</v>
       </c>
       <c r="D36">
-        <v>-0.02011539044711751</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01423479312641549</v>
+      </c>
+      <c r="E36">
+        <v>0.03299042210296155</v>
+      </c>
+      <c r="F36">
+        <v>-0.03534553412208927</v>
+      </c>
+      <c r="G36">
+        <v>-0.01579010295792794</v>
+      </c>
+      <c r="H36">
+        <v>-0.03628831005519124</v>
+      </c>
+      <c r="I36">
+        <v>-0.063591284826703</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.06977627276321846</v>
+        <v>-0.05937565458140907</v>
       </c>
       <c r="C38">
-        <v>-0.005064567058275265</v>
+        <v>0.02579987422270111</v>
       </c>
       <c r="D38">
-        <v>0.00144903512302852</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.005241074519886076</v>
+      </c>
+      <c r="E38">
+        <v>0.03558935464771063</v>
+      </c>
+      <c r="F38">
+        <v>-0.00423155662850918</v>
+      </c>
+      <c r="G38">
+        <v>0.009227776731731283</v>
+      </c>
+      <c r="H38">
+        <v>-0.0403112105278285</v>
+      </c>
+      <c r="I38">
+        <v>-0.002244429639881597</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.09026167276012936</v>
+        <v>-0.09826133426383782</v>
       </c>
       <c r="C39">
-        <v>-0.05581044515259834</v>
+        <v>0.03186187048641758</v>
       </c>
       <c r="D39">
-        <v>-0.04648460813125868</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06021472598335696</v>
+      </c>
+      <c r="E39">
+        <v>0.02102539924006695</v>
+      </c>
+      <c r="F39">
+        <v>-0.02557035499256165</v>
+      </c>
+      <c r="G39">
+        <v>-0.03414951467017501</v>
+      </c>
+      <c r="H39">
+        <v>-0.0095715711159271</v>
+      </c>
+      <c r="I39">
+        <v>-0.06310764884769653</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07843306110791583</v>
+        <v>-0.05718928284750103</v>
       </c>
       <c r="C40">
-        <v>-0.02322196195981768</v>
+        <v>0.0387976884096853</v>
       </c>
       <c r="D40">
-        <v>-0.0204868428111466</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.004713657432786577</v>
+      </c>
+      <c r="E40">
+        <v>0.06663613812877624</v>
+      </c>
+      <c r="F40">
+        <v>0.005941844932845453</v>
+      </c>
+      <c r="G40">
+        <v>-0.02569746981803864</v>
+      </c>
+      <c r="H40">
+        <v>0.05840358873992288</v>
+      </c>
+      <c r="I40">
+        <v>-0.2379815312465354</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.05095355137170208</v>
+        <v>-0.04536892343066626</v>
       </c>
       <c r="C41">
-        <v>-0.009738610383155094</v>
+        <v>0.03532680494457874</v>
       </c>
       <c r="D41">
-        <v>-0.03369421986849825</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01152154690919528</v>
+      </c>
+      <c r="E41">
+        <v>-0.007791814196896658</v>
+      </c>
+      <c r="F41">
+        <v>0.01204915211669545</v>
+      </c>
+      <c r="G41">
+        <v>-0.018239127119225</v>
+      </c>
+      <c r="H41">
+        <v>-0.04343963809599365</v>
+      </c>
+      <c r="I41">
+        <v>-0.02958268968735008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.05613558221467357</v>
+        <v>-0.05981745212775682</v>
       </c>
       <c r="C43">
-        <v>-0.02850545820000681</v>
+        <v>0.02483689660497348</v>
       </c>
       <c r="D43">
-        <v>-0.01302973010893095</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02874611021984916</v>
+      </c>
+      <c r="E43">
+        <v>0.01235818993696573</v>
+      </c>
+      <c r="F43">
+        <v>-0.01915383855578703</v>
+      </c>
+      <c r="G43">
+        <v>0.007074343922162357</v>
+      </c>
+      <c r="H43">
+        <v>-0.06086168761058124</v>
+      </c>
+      <c r="I43">
+        <v>-0.003889037940167433</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.09739896761224882</v>
+        <v>-0.09829256683056291</v>
       </c>
       <c r="C44">
-        <v>-0.01595369359529524</v>
+        <v>0.04724813173631568</v>
       </c>
       <c r="D44">
-        <v>-0.0512159727542233</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.02272540839198453</v>
+      </c>
+      <c r="E44">
+        <v>0.08398755557252645</v>
+      </c>
+      <c r="F44">
+        <v>-0.1104335860447089</v>
+      </c>
+      <c r="G44">
+        <v>-0.05976557766767617</v>
+      </c>
+      <c r="H44">
+        <v>-0.03860701718696533</v>
+      </c>
+      <c r="I44">
+        <v>-0.122805360296583</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02777133402837091</v>
+        <v>-0.04170297871097767</v>
       </c>
       <c r="C46">
-        <v>-0.02386854323484301</v>
+        <v>0.02250810776985597</v>
       </c>
       <c r="D46">
-        <v>-0.03207926103683596</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0374148086859773</v>
+      </c>
+      <c r="E46">
+        <v>0.02881773840150234</v>
+      </c>
+      <c r="F46">
+        <v>-0.02914186347946505</v>
+      </c>
+      <c r="G46">
+        <v>0.002873561012774935</v>
+      </c>
+      <c r="H46">
+        <v>-0.0223358278371533</v>
+      </c>
+      <c r="I46">
+        <v>-0.01274501822488121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.03878116597639131</v>
+        <v>-0.04771868806109483</v>
       </c>
       <c r="C47">
-        <v>-0.02559205044801484</v>
+        <v>0.0004980787979160474</v>
       </c>
       <c r="D47">
-        <v>0.005626881842637055</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02217552341740155</v>
+      </c>
+      <c r="E47">
+        <v>0.04288641289616865</v>
+      </c>
+      <c r="F47">
+        <v>-0.005500792433840603</v>
+      </c>
+      <c r="G47">
+        <v>0.02787198730266763</v>
+      </c>
+      <c r="H47">
+        <v>-0.02278606414241806</v>
+      </c>
+      <c r="I47">
+        <v>-0.0399795091032378</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.04295049043348104</v>
+        <v>-0.04219497669943251</v>
       </c>
       <c r="C48">
-        <v>-0.02361654853502005</v>
+        <v>0.01420527388209083</v>
       </c>
       <c r="D48">
-        <v>-0.02831180122286605</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01831765575323467</v>
+      </c>
+      <c r="E48">
+        <v>0.04918435283299625</v>
+      </c>
+      <c r="F48">
+        <v>-0.01397378725888062</v>
+      </c>
+      <c r="G48">
+        <v>-0.008697485473237966</v>
+      </c>
+      <c r="H48">
+        <v>-0.01154575679581015</v>
+      </c>
+      <c r="I48">
+        <v>-0.04557593197598856</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0.1613126121887469</v>
+        <v>-0.2041647357584825</v>
       </c>
       <c r="C49">
-        <v>-0.04320618474107317</v>
+        <v>0.008969441015880224</v>
       </c>
       <c r="D49">
-        <v>-0.02280090696942588</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.04682031895154761</v>
+      </c>
+      <c r="E49">
+        <v>-0.2158507347164403</v>
+      </c>
+      <c r="F49">
+        <v>0.003110346836503521</v>
+      </c>
+      <c r="G49">
+        <v>0.140535569253559</v>
+      </c>
+      <c r="H49">
+        <v>0.2370797354060496</v>
+      </c>
+      <c r="I49">
+        <v>0.08457061003738063</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04949757959912015</v>
+        <v>-0.04977413580238316</v>
       </c>
       <c r="C50">
-        <v>-0.03678751358038859</v>
+        <v>0.02566546948224227</v>
       </c>
       <c r="D50">
-        <v>-0.03635273027245498</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03987710762360853</v>
+      </c>
+      <c r="E50">
+        <v>0.02441698100582502</v>
+      </c>
+      <c r="F50">
+        <v>-0.007225962932328894</v>
+      </c>
+      <c r="G50">
+        <v>-0.008612876124802811</v>
+      </c>
+      <c r="H50">
+        <v>-0.06805299839671347</v>
+      </c>
+      <c r="I50">
+        <v>-0.02970800321941155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.02684425763243296</v>
+        <v>-0.03655642010721587</v>
       </c>
       <c r="C51">
-        <v>0.003116930795233161</v>
+        <v>-0.004368884284610104</v>
       </c>
       <c r="D51">
-        <v>0.01054506436273401</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.008616461707114316</v>
+      </c>
+      <c r="E51">
+        <v>-0.009465559036317284</v>
+      </c>
+      <c r="F51">
+        <v>-0.0139923162505408</v>
+      </c>
+      <c r="G51">
+        <v>0.02186285481263448</v>
+      </c>
+      <c r="H51">
+        <v>0.02122367963024144</v>
+      </c>
+      <c r="I51">
+        <v>0.01835461138355346</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1533911962847643</v>
+        <v>-0.158027243574285</v>
       </c>
       <c r="C53">
-        <v>-0.08025611724656166</v>
+        <v>0.0008022418062826818</v>
       </c>
       <c r="D53">
-        <v>0.0131072225091174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05701693057099596</v>
+      </c>
+      <c r="E53">
+        <v>-0.03035764546928467</v>
+      </c>
+      <c r="F53">
+        <v>0.007791600648655766</v>
+      </c>
+      <c r="G53">
+        <v>0.004388753992488866</v>
+      </c>
+      <c r="H53">
+        <v>-0.2095285369730083</v>
+      </c>
+      <c r="I53">
+        <v>0.1008152492768895</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.06396802481205091</v>
+        <v>-0.06305377869875621</v>
       </c>
       <c r="C54">
-        <v>-0.02563291566588236</v>
+        <v>0.003259931718433782</v>
       </c>
       <c r="D54">
-        <v>-0.01736663869973551</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02130467703635229</v>
+      </c>
+      <c r="E54">
+        <v>0.06698307683071626</v>
+      </c>
+      <c r="F54">
+        <v>-0.03367440283794286</v>
+      </c>
+      <c r="G54">
+        <v>-0.05303764816024139</v>
+      </c>
+      <c r="H54">
+        <v>-0.03866032106874354</v>
+      </c>
+      <c r="I54">
+        <v>-0.1194632007748022</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09972822235897601</v>
+        <v>-0.1006629094507515</v>
       </c>
       <c r="C55">
-        <v>-0.05084456955409347</v>
+        <v>0.01484909006742056</v>
       </c>
       <c r="D55">
-        <v>-0.01070786950295965</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04007810844516166</v>
+      </c>
+      <c r="E55">
+        <v>-0.003688125306130012</v>
+      </c>
+      <c r="F55">
+        <v>-0.02081158192414087</v>
+      </c>
+      <c r="G55">
+        <v>-0.02524349889996661</v>
+      </c>
+      <c r="H55">
+        <v>-0.1571801298407899</v>
+      </c>
+      <c r="I55">
+        <v>0.02439280882450932</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1421547454944883</v>
+        <v>-0.1492504889963024</v>
       </c>
       <c r="C56">
-        <v>-0.09540993438019303</v>
+        <v>0.01287910757215519</v>
       </c>
       <c r="D56">
-        <v>0.008122817644653767</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.07526287218303582</v>
+      </c>
+      <c r="E56">
+        <v>-0.0155170881959994</v>
+      </c>
+      <c r="F56">
+        <v>-0.01041032246308971</v>
+      </c>
+      <c r="G56">
+        <v>-0.02253659587022756</v>
+      </c>
+      <c r="H56">
+        <v>-0.2030809589538601</v>
+      </c>
+      <c r="I56">
+        <v>0.1149798287528257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2344,1127 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1226708281233055</v>
+        <v>-0.08933363834783838</v>
       </c>
       <c r="C58">
-        <v>0.0365453345370509</v>
+        <v>0.06047553128048289</v>
       </c>
       <c r="D58">
-        <v>-0.05479380371586735</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.05824183062705401</v>
+      </c>
+      <c r="E58">
+        <v>0.1144367498839959</v>
+      </c>
+      <c r="F58">
+        <v>-0.05233154452458477</v>
+      </c>
+      <c r="G58">
+        <v>0.1114463813968261</v>
+      </c>
+      <c r="H58">
+        <v>0.1750223943985319</v>
+      </c>
+      <c r="I58">
+        <v>-0.5353349161809304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1251087742344806</v>
+        <v>-0.1580476085905896</v>
       </c>
       <c r="C59">
-        <v>-0.07864974073204586</v>
+        <v>-0.3610426975535321</v>
       </c>
       <c r="D59">
-        <v>0.4381113945982342</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.08138703169587881</v>
+      </c>
+      <c r="E59">
+        <v>-0.003402231374957773</v>
+      </c>
+      <c r="F59">
+        <v>-0.003525259240332117</v>
+      </c>
+      <c r="G59">
+        <v>-0.01392564785973167</v>
+      </c>
+      <c r="H59">
+        <v>-0.02412846410189516</v>
+      </c>
+      <c r="I59">
+        <v>0.05102626569043995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2097312209170295</v>
+        <v>-0.2399112305579437</v>
       </c>
       <c r="C60">
-        <v>-0.08789564477832754</v>
+        <v>0.01766520640559726</v>
       </c>
       <c r="D60">
-        <v>-0.001605317917159698</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.07413604274627456</v>
+      </c>
+      <c r="E60">
+        <v>-0.1525718986242178</v>
+      </c>
+      <c r="F60">
+        <v>-0.01973788653727184</v>
+      </c>
+      <c r="G60">
+        <v>0.006162703198723933</v>
+      </c>
+      <c r="H60">
+        <v>0.1493520464270836</v>
+      </c>
+      <c r="I60">
+        <v>0.1212311572401933</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.07826824956015242</v>
+        <v>-0.08732747133569976</v>
       </c>
       <c r="C61">
-        <v>-0.05052372276763416</v>
+        <v>0.02162750103159458</v>
       </c>
       <c r="D61">
-        <v>-0.02658157701388108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.05258614321692711</v>
+      </c>
+      <c r="E61">
+        <v>0.01334760673312954</v>
+      </c>
+      <c r="F61">
+        <v>-0.02761317927891836</v>
+      </c>
+      <c r="G61">
+        <v>-0.04381613726015007</v>
+      </c>
+      <c r="H61">
+        <v>-0.06386040036593091</v>
+      </c>
+      <c r="I61">
+        <v>-0.03279389165132385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0.1365361416545562</v>
+        <v>-0.141272332416822</v>
       </c>
       <c r="C62">
-        <v>-0.05874012071569441</v>
+        <v>0.02522145636721379</v>
       </c>
       <c r="D62">
-        <v>0.005932379605790858</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04656021513995486</v>
+      </c>
+      <c r="E62">
+        <v>-0.04502342453745991</v>
+      </c>
+      <c r="F62">
+        <v>0.04013352994687042</v>
+      </c>
+      <c r="G62">
+        <v>-0.05005445233173551</v>
+      </c>
+      <c r="H62">
+        <v>-0.2011884231733543</v>
+      </c>
+      <c r="I62">
+        <v>0.1133328214974897</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.05640808232719531</v>
+        <v>-0.05216521834233213</v>
       </c>
       <c r="C63">
-        <v>-0.01782127643523349</v>
+        <v>0.0179040067106376</v>
       </c>
       <c r="D63">
-        <v>-0.02835947508146984</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01857375286476592</v>
+      </c>
+      <c r="E63">
+        <v>0.02801429959461306</v>
+      </c>
+      <c r="F63">
+        <v>-0.007942451295281913</v>
+      </c>
+      <c r="G63">
+        <v>-0.05086762652616839</v>
+      </c>
+      <c r="H63">
+        <v>-0.03698829985328708</v>
+      </c>
+      <c r="I63">
+        <v>-0.03850477493006726</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.1048867340667023</v>
+        <v>-0.1114588216917035</v>
       </c>
       <c r="C64">
-        <v>-0.03573772047621055</v>
+        <v>0.009276866722264958</v>
       </c>
       <c r="D64">
-        <v>-0.01095018031335964</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03054696119517073</v>
+      </c>
+      <c r="E64">
+        <v>0.03351700537400866</v>
+      </c>
+      <c r="F64">
+        <v>-0.05986503107007245</v>
+      </c>
+      <c r="G64">
+        <v>-0.04546845603242249</v>
+      </c>
+      <c r="H64">
+        <v>-0.004868461241514574</v>
+      </c>
+      <c r="I64">
+        <v>-0.04717016287637666</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.1232980667388911</v>
+        <v>-0.131388777952453</v>
       </c>
       <c r="C65">
-        <v>-0.04499654930252919</v>
+        <v>-0.001469061312316728</v>
       </c>
       <c r="D65">
-        <v>-0.02963656213492026</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.03835259683564621</v>
+      </c>
+      <c r="E65">
+        <v>-0.008937434612987091</v>
+      </c>
+      <c r="F65">
+        <v>-0.01829130471036601</v>
+      </c>
+      <c r="G65">
+        <v>-0.08742941416544682</v>
+      </c>
+      <c r="H65">
+        <v>0.1995855566379903</v>
+      </c>
+      <c r="I65">
+        <v>-0.06576554975943058</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.1483968851848635</v>
+        <v>-0.1458609787484367</v>
       </c>
       <c r="C66">
-        <v>-0.08136008413690085</v>
+        <v>0.07435249320011163</v>
       </c>
       <c r="D66">
-        <v>-0.08474626541574125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.09046908125348783</v>
+      </c>
+      <c r="E66">
+        <v>9.259186838211724e-06</v>
+      </c>
+      <c r="F66">
+        <v>-0.0168306793974744</v>
+      </c>
+      <c r="G66">
+        <v>-0.08117286090035351</v>
+      </c>
+      <c r="H66">
+        <v>-0.06398523443864677</v>
+      </c>
+      <c r="I66">
+        <v>-0.1087265673476058</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.09682439153441706</v>
+        <v>-0.09970403524317327</v>
       </c>
       <c r="C67">
-        <v>-0.01216153985008977</v>
+        <v>0.03097371998763114</v>
       </c>
       <c r="D67">
-        <v>-0.001529363599569962</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.008454083269741312</v>
+      </c>
+      <c r="E67">
+        <v>-0.0006506888855302312</v>
+      </c>
+      <c r="F67">
+        <v>-0.01232294810500595</v>
+      </c>
+      <c r="G67">
+        <v>0.0178912064777593</v>
+      </c>
+      <c r="H67">
+        <v>-0.03026154498268091</v>
+      </c>
+      <c r="I67">
+        <v>0.03121736191474657</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.04700642109753434</v>
+        <v>-0.07310182311747941</v>
       </c>
       <c r="C68">
-        <v>-0.04487059754887262</v>
+        <v>-0.2779015189699171</v>
       </c>
       <c r="D68">
-        <v>0.2563305057610266</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.05503651330709883</v>
+      </c>
+      <c r="E68">
+        <v>0.0368707176740849</v>
+      </c>
+      <c r="F68">
+        <v>-0.02132983975523384</v>
+      </c>
+      <c r="G68">
+        <v>0.003379591238823526</v>
+      </c>
+      <c r="H68">
+        <v>-0.01630218298023114</v>
+      </c>
+      <c r="I68">
+        <v>-0.01820932787189664</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06356685815953556</v>
+        <v>-0.05679941810769941</v>
       </c>
       <c r="C69">
-        <v>-0.02698835791849536</v>
+        <v>0.01478581266442147</v>
       </c>
       <c r="D69">
-        <v>-0.0162491818419151</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01549963115763116</v>
+      </c>
+      <c r="E69">
+        <v>0.02775955998493898</v>
+      </c>
+      <c r="F69">
+        <v>0.01064993865490406</v>
+      </c>
+      <c r="G69">
+        <v>-0.001149224619298451</v>
+      </c>
+      <c r="H69">
+        <v>-0.0414961801875531</v>
+      </c>
+      <c r="I69">
+        <v>-0.0100391461100912</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>0.01211424636576871</v>
+        <v>-0.03331402946418154</v>
       </c>
       <c r="C70">
-        <v>-0.0008193230378502267</v>
+        <v>-0.004040750714614697</v>
       </c>
       <c r="D70">
-        <v>0.01105124184989708</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.002969483893850212</v>
+      </c>
+      <c r="E70">
+        <v>-0.03116528302740265</v>
+      </c>
+      <c r="F70">
+        <v>0.004200465050926697</v>
+      </c>
+      <c r="G70">
+        <v>0.009330372175287071</v>
+      </c>
+      <c r="H70">
+        <v>0.02536938091865864</v>
+      </c>
+      <c r="I70">
+        <v>-0.00919386382431189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.04489026191559775</v>
+        <v>-0.07938915905735448</v>
       </c>
       <c r="C71">
-        <v>-0.03939143623714612</v>
+        <v>-0.2981734396251695</v>
       </c>
       <c r="D71">
-        <v>0.2893634131837199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.06183888456608143</v>
+      </c>
+      <c r="E71">
+        <v>0.02581247346206838</v>
+      </c>
+      <c r="F71">
+        <v>-0.04428992879704526</v>
+      </c>
+      <c r="G71">
+        <v>-0.004607331994250039</v>
+      </c>
+      <c r="H71">
+        <v>-0.01709341562469152</v>
+      </c>
+      <c r="I71">
+        <v>-0.01462049878029411</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.140759108657376</v>
+        <v>-0.1369913757286687</v>
       </c>
       <c r="C72">
-        <v>-0.04594627936972322</v>
+        <v>-0.003767515119021596</v>
       </c>
       <c r="D72">
-        <v>0.02803815552441435</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01278919192648178</v>
+      </c>
+      <c r="E72">
+        <v>-0.005560252550261078</v>
+      </c>
+      <c r="F72">
+        <v>0.1667854540921347</v>
+      </c>
+      <c r="G72">
+        <v>-0.1138579654471941</v>
+      </c>
+      <c r="H72">
+        <v>-0.007649708780541047</v>
+      </c>
+      <c r="I72">
+        <v>0.00479909792782325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2612193382762406</v>
+        <v>-0.2615653321568566</v>
       </c>
       <c r="C73">
-        <v>-0.07064817053421875</v>
+        <v>0.0906066216199265</v>
       </c>
       <c r="D73">
-        <v>-0.06354784370043821</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.05349834868993746</v>
+      </c>
+      <c r="E73">
+        <v>-0.3416635242457269</v>
+      </c>
+      <c r="F73">
+        <v>-0.001602774538470603</v>
+      </c>
+      <c r="G73">
+        <v>0.2182783234598894</v>
+      </c>
+      <c r="H73">
+        <v>0.3195767205956151</v>
+      </c>
+      <c r="I73">
+        <v>0.06277529274118002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.08001189089440838</v>
+        <v>-0.08933426343627632</v>
       </c>
       <c r="C74">
-        <v>-0.07708492191664273</v>
+        <v>0.01261498117932141</v>
       </c>
       <c r="D74">
-        <v>-0.006009102461346681</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.06885070186412927</v>
+      </c>
+      <c r="E74">
+        <v>-0.009351095381076131</v>
+      </c>
+      <c r="F74">
+        <v>0.004454929196265648</v>
+      </c>
+      <c r="G74">
+        <v>0.02309580539956861</v>
+      </c>
+      <c r="H74">
+        <v>-0.1322502430945008</v>
+      </c>
+      <c r="I74">
+        <v>0.0195174664181844</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1095980137752431</v>
+        <v>-0.103598702813311</v>
       </c>
       <c r="C75">
-        <v>-0.04485881555860811</v>
+        <v>0.02134282105772634</v>
       </c>
       <c r="D75">
-        <v>-0.004709824265019012</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02257399185972286</v>
+      </c>
+      <c r="E75">
+        <v>0.002737287667483283</v>
+      </c>
+      <c r="F75">
+        <v>0.005284151988940264</v>
+      </c>
+      <c r="G75">
+        <v>0.006599126763734742</v>
+      </c>
+      <c r="H75">
+        <v>-0.115672119942887</v>
+      </c>
+      <c r="I75">
+        <v>0.05100718846185594</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1302665370611119</v>
+        <v>-0.1317361246080252</v>
       </c>
       <c r="C76">
-        <v>-0.08041980783082094</v>
+        <v>0.03421716537326017</v>
       </c>
       <c r="D76">
-        <v>-0.02404129029514295</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07625687315202265</v>
+      </c>
+      <c r="E76">
+        <v>0.004271907414935881</v>
+      </c>
+      <c r="F76">
+        <v>-0.03031632831191862</v>
+      </c>
+      <c r="G76">
+        <v>-0.02404322127556052</v>
+      </c>
+      <c r="H76">
+        <v>-0.2603581150315034</v>
+      </c>
+      <c r="I76">
+        <v>0.102218514500264</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.13279856319181</v>
+        <v>-0.1020781466619004</v>
       </c>
       <c r="C77">
-        <v>0.0265880992944597</v>
+        <v>0.05771272438697723</v>
       </c>
       <c r="D77">
-        <v>-0.06648094290924077</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04919310437606049</v>
+      </c>
+      <c r="E77">
+        <v>0.1295359026980136</v>
+      </c>
+      <c r="F77">
+        <v>-0.07031138676644291</v>
+      </c>
+      <c r="G77">
+        <v>-0.7645732939649874</v>
+      </c>
+      <c r="H77">
+        <v>0.3012034066171353</v>
+      </c>
+      <c r="I77">
+        <v>0.2966221578954421</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.1127520408916492</v>
+        <v>-0.1552012588532278</v>
       </c>
       <c r="C78">
-        <v>-0.03471842852295875</v>
+        <v>0.05045044290392796</v>
       </c>
       <c r="D78">
-        <v>-0.08002886793174986</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06835050359264232</v>
+      </c>
+      <c r="E78">
+        <v>0.103477104803097</v>
+      </c>
+      <c r="F78">
+        <v>-0.06386718422632434</v>
+      </c>
+      <c r="G78">
+        <v>0.001837069320381129</v>
+      </c>
+      <c r="H78">
+        <v>0.1478296771446443</v>
+      </c>
+      <c r="I78">
+        <v>-0.03608351562280136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1393345798557194</v>
+        <v>-0.1418684930681386</v>
       </c>
       <c r="C79">
-        <v>-0.05494831144527689</v>
+        <v>0.03218646622686055</v>
       </c>
       <c r="D79">
-        <v>-0.03030197594875321</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0438207382050155</v>
+      </c>
+      <c r="E79">
+        <v>-0.01885700473301993</v>
+      </c>
+      <c r="F79">
+        <v>-0.01190760015143967</v>
+      </c>
+      <c r="G79">
+        <v>-0.02656740987546837</v>
+      </c>
+      <c r="H79">
+        <v>-0.1796891098148612</v>
+      </c>
+      <c r="I79">
+        <v>0.07480784195821316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.03611996742204533</v>
+        <v>-0.04105579063518505</v>
       </c>
       <c r="C80">
-        <v>-0.02121260492804975</v>
+        <v>0.004835115672871137</v>
       </c>
       <c r="D80">
-        <v>-0.01991521549180406</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0231902523835664</v>
+      </c>
+      <c r="E80">
+        <v>-0.05226371585750807</v>
+      </c>
+      <c r="F80">
+        <v>-0.003361454970866289</v>
+      </c>
+      <c r="G80">
+        <v>0.005172716026016727</v>
+      </c>
+      <c r="H80">
+        <v>-0.01965072164983806</v>
+      </c>
+      <c r="I80">
+        <v>-0.118973239050715</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1339618814162395</v>
+        <v>-0.131455586478753</v>
       </c>
       <c r="C81">
-        <v>-0.07248974319216264</v>
+        <v>0.01240574376707173</v>
       </c>
       <c r="D81">
-        <v>-0.008506489449453992</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.05069691905462888</v>
+      </c>
+      <c r="E81">
+        <v>0.000908693058874936</v>
+      </c>
+      <c r="F81">
+        <v>-0.02000212579815377</v>
+      </c>
+      <c r="G81">
+        <v>-0.008947277938317412</v>
+      </c>
+      <c r="H81">
+        <v>-0.1555524501175342</v>
+      </c>
+      <c r="I81">
+        <v>0.02236760529865138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.1231850679015146</v>
+        <v>-0.1221613476724883</v>
       </c>
       <c r="C82">
-        <v>-0.05924867568028481</v>
+        <v>0.01793828968246282</v>
       </c>
       <c r="D82">
-        <v>-0.01443227557164469</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.04672451127175262</v>
+      </c>
+      <c r="E82">
+        <v>-0.01743587355604984</v>
+      </c>
+      <c r="F82">
+        <v>-0.02523133520394236</v>
+      </c>
+      <c r="G82">
+        <v>0.006601320483559817</v>
+      </c>
+      <c r="H82">
+        <v>-0.2567668794888582</v>
+      </c>
+      <c r="I82">
+        <v>0.1017432793803585</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.07491254541564009</v>
+        <v>-0.08643218651131841</v>
       </c>
       <c r="C83">
-        <v>0.03460702370071359</v>
+        <v>0.02660016906575692</v>
       </c>
       <c r="D83">
-        <v>0.0141461217661351</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.038056554888688</v>
+      </c>
+      <c r="E83">
+        <v>-0.0008537791040423361</v>
+      </c>
+      <c r="F83">
+        <v>-0.03642154998171566</v>
+      </c>
+      <c r="G83">
+        <v>0.06708574963429134</v>
+      </c>
+      <c r="H83">
+        <v>0.006768497739657411</v>
+      </c>
+      <c r="I83">
+        <v>-0.08920053420118887</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.03720233257949858</v>
+        <v>-0.03314486837143193</v>
       </c>
       <c r="C84">
-        <v>-0.03217875428247083</v>
+        <v>0.03422183804251066</v>
       </c>
       <c r="D84">
-        <v>-0.03356744621545486</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03413300715766317</v>
+      </c>
+      <c r="E84">
+        <v>0.02862877199487002</v>
+      </c>
+      <c r="F84">
+        <v>0.0415394788831794</v>
+      </c>
+      <c r="G84">
+        <v>0.04013184125178618</v>
+      </c>
+      <c r="H84">
+        <v>-0.04051105316312622</v>
+      </c>
+      <c r="I84">
+        <v>-0.09711286772183558</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1124058036256445</v>
+        <v>-0.1202853122584664</v>
       </c>
       <c r="C85">
-        <v>-0.03120803167130129</v>
+        <v>0.03038270767195847</v>
       </c>
       <c r="D85">
-        <v>-0.03439231891253997</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.02903640345518767</v>
+      </c>
+      <c r="E85">
+        <v>-0.005748891773456382</v>
+      </c>
+      <c r="F85">
+        <v>-0.04376121966198632</v>
+      </c>
+      <c r="G85">
+        <v>-0.007732220802844959</v>
+      </c>
+      <c r="H85">
+        <v>-0.1593228134859494</v>
+      </c>
+      <c r="I85">
+        <v>0.05952908270049547</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.05942637972001557</v>
+        <v>-0.05721289993291202</v>
       </c>
       <c r="C86">
-        <v>-0.01890036813166439</v>
+        <v>0.03117977120628278</v>
       </c>
       <c r="D86">
-        <v>-0.06705018073693182</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01803999917928676</v>
+      </c>
+      <c r="E86">
+        <v>0.01575478710632453</v>
+      </c>
+      <c r="F86">
+        <v>-0.02235941191903134</v>
+      </c>
+      <c r="G86">
+        <v>0.01066072377670355</v>
+      </c>
+      <c r="H86">
+        <v>0.06717846317439125</v>
+      </c>
+      <c r="I86">
+        <v>0.03570676740898473</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.1245534602810451</v>
+        <v>-0.1292655920846345</v>
       </c>
       <c r="C87">
-        <v>-0.0684001626981708</v>
+        <v>0.06159861516468261</v>
       </c>
       <c r="D87">
-        <v>-0.09047332824964067</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06976448374374238</v>
+      </c>
+      <c r="E87">
+        <v>0.05847437740978394</v>
+      </c>
+      <c r="F87">
+        <v>-0.03278308238709553</v>
+      </c>
+      <c r="G87">
+        <v>-0.161358793570373</v>
+      </c>
+      <c r="H87">
+        <v>0.1032425152625917</v>
+      </c>
+      <c r="I87">
+        <v>0.004152056800633758</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05792223888324305</v>
+        <v>-0.06352206997505723</v>
       </c>
       <c r="C88">
-        <v>-0.03023712287672928</v>
+        <v>0.03182909705981468</v>
       </c>
       <c r="D88">
-        <v>-0.02704051432540965</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0374279835129819</v>
+      </c>
+      <c r="E88">
+        <v>-0.005753819854292685</v>
+      </c>
+      <c r="F88">
+        <v>-0.02238104860054192</v>
+      </c>
+      <c r="G88">
+        <v>-0.01412449129297541</v>
+      </c>
+      <c r="H88">
+        <v>-0.04279415826925969</v>
+      </c>
+      <c r="I88">
+        <v>-0.03190439319518722</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.07292425787489977</v>
+        <v>-0.1251360443434845</v>
       </c>
       <c r="C89">
-        <v>-0.07742566457729307</v>
+        <v>-0.3764947136670406</v>
       </c>
       <c r="D89">
-        <v>0.3191111490922234</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.05075077374921556</v>
+      </c>
+      <c r="E89">
+        <v>0.02973302266394529</v>
+      </c>
+      <c r="F89">
+        <v>-0.08613368754016713</v>
+      </c>
+      <c r="G89">
+        <v>0.01661107228831003</v>
+      </c>
+      <c r="H89">
+        <v>-0.008369165767766723</v>
+      </c>
+      <c r="I89">
+        <v>-0.07433962481772234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.06247626493282436</v>
+        <v>-0.09081146983647505</v>
       </c>
       <c r="C90">
-        <v>-0.04112383931054449</v>
+        <v>-0.2796322746475381</v>
       </c>
       <c r="D90">
-        <v>0.2841571051115768</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.06239377917816513</v>
+      </c>
+      <c r="E90">
+        <v>0.02025288885583033</v>
+      </c>
+      <c r="F90">
+        <v>-0.03708452673418936</v>
+      </c>
+      <c r="G90">
+        <v>-0.01089689767691822</v>
+      </c>
+      <c r="H90">
+        <v>0.02045361613218002</v>
+      </c>
+      <c r="I90">
+        <v>-0.09939197420200725</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.09467499643822001</v>
+        <v>-0.08972696609536655</v>
       </c>
       <c r="C91">
-        <v>-0.04988426035475571</v>
+        <v>0.02188483111875791</v>
       </c>
       <c r="D91">
-        <v>-0.007566209399255498</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03314171241191257</v>
+      </c>
+      <c r="E91">
+        <v>0.001849554121965892</v>
+      </c>
+      <c r="F91">
+        <v>-0.003474725374162624</v>
+      </c>
+      <c r="G91">
+        <v>0.01416532507904328</v>
+      </c>
+      <c r="H91">
+        <v>-0.08444259401328505</v>
+      </c>
+      <c r="I91">
+        <v>0.04070825508614875</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.05784814622661053</v>
+        <v>-0.09249939457361687</v>
       </c>
       <c r="C92">
-        <v>-0.06270564229917552</v>
+        <v>-0.3316394732213422</v>
       </c>
       <c r="D92">
-        <v>0.3285465864023028</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.05932380201283728</v>
+      </c>
+      <c r="E92">
+        <v>0.0265070246217177</v>
+      </c>
+      <c r="F92">
+        <v>-0.0448080683141674</v>
+      </c>
+      <c r="G92">
+        <v>-0.004444912407184452</v>
+      </c>
+      <c r="H92">
+        <v>-0.01677993342616213</v>
+      </c>
+      <c r="I92">
+        <v>-0.02601529787858109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.0520832255929561</v>
+        <v>-0.09111755075702059</v>
       </c>
       <c r="C93">
-        <v>-0.05310975252087819</v>
+        <v>-0.3160500812308999</v>
       </c>
       <c r="D93">
-        <v>0.3070461164116416</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.05625801417727794</v>
+      </c>
+      <c r="E93">
+        <v>0.001770328076493482</v>
+      </c>
+      <c r="F93">
+        <v>-0.03033965221162322</v>
+      </c>
+      <c r="G93">
+        <v>-0.007996340396539443</v>
+      </c>
+      <c r="H93">
+        <v>0.006405578111083013</v>
+      </c>
+      <c r="I93">
+        <v>-0.01122237996295189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.124997404967594</v>
+        <v>-0.1255010318023656</v>
       </c>
       <c r="C94">
-        <v>-0.02927779533492495</v>
+        <v>0.04469546386016307</v>
       </c>
       <c r="D94">
-        <v>-0.05198504084719429</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02333436368377317</v>
+      </c>
+      <c r="E94">
+        <v>0.008641243694433188</v>
+      </c>
+      <c r="F94">
+        <v>-0.02389859599618512</v>
+      </c>
+      <c r="G94">
+        <v>0.05265576876888751</v>
+      </c>
+      <c r="H94">
+        <v>-0.1045893528532039</v>
+      </c>
+      <c r="I94">
+        <v>0.04199412027442615</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1260462055395887</v>
+        <v>-0.1368524953670263</v>
       </c>
       <c r="C95">
-        <v>-0.02135467205654393</v>
+        <v>0.05822609225160819</v>
       </c>
       <c r="D95">
-        <v>-0.0770918606873322</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.02316266471391489</v>
+      </c>
+      <c r="E95">
+        <v>0.01354627139918266</v>
+      </c>
+      <c r="F95">
+        <v>-0.04462918141593365</v>
+      </c>
+      <c r="G95">
+        <v>-0.04180117272556198</v>
+      </c>
+      <c r="H95">
+        <v>0.1256034141235244</v>
+      </c>
+      <c r="I95">
+        <v>-0.03984666721251129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3475,112 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0.2325605022592978</v>
+        <v>-0.1838360002809864</v>
       </c>
       <c r="C97">
-        <v>-0.07304342105283569</v>
+        <v>-0.0349608576533114</v>
       </c>
       <c r="D97">
-        <v>0.1150060861920897</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.03990072573184568</v>
+      </c>
+      <c r="E97">
+        <v>0.1510415352758149</v>
+      </c>
+      <c r="F97">
+        <v>0.9254177071169033</v>
+      </c>
+      <c r="G97">
+        <v>-0.05621089521757493</v>
+      </c>
+      <c r="H97">
+        <v>0.01332354763805057</v>
+      </c>
+      <c r="I97">
+        <v>-0.09267240471217519</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2551562386350646</v>
+        <v>-0.2741752615471956</v>
       </c>
       <c r="C98">
-        <v>-0.07202151044159838</v>
+        <v>0.05519991635602665</v>
       </c>
       <c r="D98">
-        <v>-0.03105773557260385</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05697548545327434</v>
+      </c>
+      <c r="E98">
+        <v>-0.2701387869758054</v>
+      </c>
+      <c r="F98">
+        <v>0.05635238503823859</v>
+      </c>
+      <c r="G98">
+        <v>0.2572525502718249</v>
+      </c>
+      <c r="H98">
+        <v>0.1560505549635769</v>
+      </c>
+      <c r="I98">
+        <v>0.1961533817897941</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>0.3769726024045349</v>
+        <v>-0.2350241634598366</v>
       </c>
       <c r="C99">
-        <v>0.9028136700242664</v>
+        <v>0.2543886319116944</v>
       </c>
       <c r="D99">
-        <v>0.07738475259091863</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.9108397626009848</v>
+      </c>
+      <c r="E99">
+        <v>-0.02787417523267071</v>
+      </c>
+      <c r="F99">
+        <v>-0.07618187570318612</v>
+      </c>
+      <c r="G99">
+        <v>0.01435703269676752</v>
+      </c>
+      <c r="H99">
+        <v>-0.10601249913665</v>
+      </c>
+      <c r="I99">
+        <v>-0.006456775321824542</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3591,54 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.05118202782859826</v>
+        <v>-0.05353157240034211</v>
       </c>
       <c r="C101">
-        <v>-0.04577858189401668</v>
+        <v>-0.002440948241693968</v>
       </c>
       <c r="D101">
-        <v>0.0005528714613557169</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03854049015294595</v>
+      </c>
+      <c r="E101">
+        <v>0.03386685919461721</v>
+      </c>
+      <c r="F101">
+        <v>-0.03447539191557822</v>
+      </c>
+      <c r="G101">
+        <v>-0.01319919118622674</v>
+      </c>
+      <c r="H101">
+        <v>-0.08736717962669452</v>
+      </c>
+      <c r="I101">
+        <v>-0.04517800406324467</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3649,25 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
